--- a/data/georgia_census/imereti/sachxere/healthcare_staff.xlsx
+++ b/data/georgia_census/imereti/sachxere/healthcare_staff.xlsx
@@ -1376,13 +1376,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A35B06D2-3F8C-4863-A4CF-9C93567E8EA9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFAAA0D4-B47E-44F4-9771-34C02AC24A11}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA533E34-0B6B-4AC7-A40A-72A78BE639A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C32D0252-DA3E-4023-A2B6-E912C6FF167A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F64334C-2E33-4F31-A9A9-B7C641503379}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4267A204-A40D-436C-AF82-A2CBCA6AD1AF}"/>
 </file>